--- a/REGULAR/HRMO/PAYAD, MARICEL QUILAO.xlsx
+++ b/REGULAR/HRMO/PAYAD, MARICEL QUILAO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="341">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1053,6 +1053,9 @@
   </si>
   <si>
     <t>UT(0-0-13)</t>
+  </si>
+  <si>
+    <t>12/14,19,20,26/2023</t>
   </si>
 </sst>
 </file>
@@ -2105,7 +2108,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A405" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H414" sqref="H414"/>
+      <selection pane="bottomLeft" activeCell="E421" sqref="E421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2273,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.12399999999985</v>
+        <v>131.37399999999985</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2280,7 +2283,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>150.08299999999997</v>
+        <v>156.33299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4674,7 +4677,7 @@
       </c>
       <c r="E123" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.12399999999985</v>
+        <v>131.37399999999985</v>
       </c>
       <c r="F123" s="20"/>
       <c r="G123" s="13" t="str">
@@ -4684,7 +4687,7 @@
       <c r="H123" s="40"/>
       <c r="I123" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>150.08299999999997</v>
+        <v>156.33299999999997</v>
       </c>
       <c r="J123" s="11"/>
       <c r="K123" s="49"/>
@@ -4794,7 +4797,7 @@
       </c>
       <c r="E128" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.12399999999985</v>
+        <v>131.37399999999985</v>
       </c>
       <c r="F128" s="20"/>
       <c r="G128" s="13" t="str">
@@ -4804,7 +4807,7 @@
       <c r="H128" s="40"/>
       <c r="I128" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>150.08299999999997</v>
+        <v>156.33299999999997</v>
       </c>
       <c r="J128" s="11"/>
       <c r="K128" s="49"/>
@@ -7824,7 +7827,7 @@
       <c r="D264" s="40"/>
       <c r="E264" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.12399999999985</v>
+        <v>131.37399999999985</v>
       </c>
       <c r="F264" s="20"/>
       <c r="G264" s="13" t="str">
@@ -7834,7 +7837,7 @@
       <c r="H264" s="40"/>
       <c r="I264" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>150.08299999999997</v>
+        <v>156.33299999999997</v>
       </c>
       <c r="J264" s="11"/>
       <c r="K264" s="49" t="s">
@@ -7852,7 +7855,7 @@
       </c>
       <c r="E265" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.12399999999985</v>
+        <v>131.37399999999985</v>
       </c>
       <c r="F265" s="20"/>
       <c r="G265" s="13" t="str">
@@ -7862,7 +7865,7 @@
       <c r="H265" s="40"/>
       <c r="I265" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>150.08299999999997</v>
+        <v>156.33299999999997</v>
       </c>
       <c r="J265" s="11"/>
       <c r="K265" s="49"/>
@@ -7904,7 +7907,7 @@
       </c>
       <c r="E267" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.12399999999985</v>
+        <v>131.37399999999985</v>
       </c>
       <c r="F267" s="20"/>
       <c r="G267" s="13" t="str">
@@ -7914,7 +7917,7 @@
       <c r="H267" s="40"/>
       <c r="I267" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>150.08299999999997</v>
+        <v>156.33299999999997</v>
       </c>
       <c r="J267" s="11"/>
       <c r="K267" s="49"/>
@@ -7956,7 +7959,7 @@
       </c>
       <c r="E269" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.12399999999985</v>
+        <v>131.37399999999985</v>
       </c>
       <c r="F269" s="20"/>
       <c r="G269" s="13" t="str">
@@ -7966,7 +7969,7 @@
       <c r="H269" s="40"/>
       <c r="I269" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>150.08299999999997</v>
+        <v>156.33299999999997</v>
       </c>
       <c r="J269" s="11"/>
       <c r="K269" s="49"/>
@@ -8008,7 +8011,7 @@
       </c>
       <c r="E271" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.12399999999985</v>
+        <v>131.37399999999985</v>
       </c>
       <c r="F271" s="20"/>
       <c r="G271" s="13" t="str">
@@ -8018,7 +8021,7 @@
       <c r="H271" s="40"/>
       <c r="I271" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>150.08299999999997</v>
+        <v>156.33299999999997</v>
       </c>
       <c r="J271" s="11"/>
       <c r="K271" s="49"/>
@@ -8396,7 +8399,7 @@
       </c>
       <c r="E288" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>131.12399999999985</v>
+        <v>131.37399999999985</v>
       </c>
       <c r="F288" s="20"/>
       <c r="G288" s="13" t="str">
@@ -8406,7 +8409,7 @@
       <c r="H288" s="40"/>
       <c r="I288" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>150.08299999999997</v>
+        <v>156.33299999999997</v>
       </c>
       <c r="J288" s="11"/>
       <c r="K288" s="49"/>
@@ -11231,13 +11234,15 @@
       <c r="B417" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C417" s="13"/>
+      <c r="C417" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D417" s="40"/>
       <c r="E417" s="9"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G417" s="43">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H417" s="40"/>
       <c r="I417" s="9"/>
@@ -11251,13 +11256,15 @@
         <v>45169</v>
       </c>
       <c r="B418" s="20"/>
-      <c r="C418" s="13"/>
+      <c r="C418" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D418" s="40"/>
       <c r="E418" s="9"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G418" s="43">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H418" s="40"/>
       <c r="I418" s="9"/>
@@ -11269,13 +11276,15 @@
         <v>45199</v>
       </c>
       <c r="B419" s="20"/>
-      <c r="C419" s="13"/>
+      <c r="C419" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D419" s="40"/>
       <c r="E419" s="9"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G419" s="43">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H419" s="40"/>
       <c r="I419" s="9"/>
@@ -11286,45 +11295,65 @@
       <c r="A420" s="23">
         <v>45230</v>
       </c>
-      <c r="B420" s="20"/>
-      <c r="C420" s="13"/>
-      <c r="D420" s="40"/>
+      <c r="B420" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C420" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D420" s="40">
+        <v>1</v>
+      </c>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
-      <c r="G420" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G420" s="43">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H420" s="40"/>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="20"/>
+      <c r="K420" s="54">
+        <v>45233</v>
+      </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <v>45260</v>
       </c>
-      <c r="B421" s="20"/>
-      <c r="C421" s="13"/>
-      <c r="D421" s="40"/>
+      <c r="B421" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C421" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D421" s="40">
+        <v>1</v>
+      </c>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G421" s="43">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H421" s="40"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="20"/>
+      <c r="K421" s="54">
+        <v>45210</v>
+      </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <v>45291</v>
       </c>
-      <c r="B422" s="20"/>
+      <c r="B422" s="20" t="s">
+        <v>228</v>
+      </c>
       <c r="C422" s="13"/>
-      <c r="D422" s="40"/>
+      <c r="D422" s="40">
+        <v>4</v>
+      </c>
       <c r="E422" s="9"/>
       <c r="F422" s="20"/>
       <c r="G422" s="43" t="str">
@@ -11334,7 +11363,9 @@
       <c r="H422" s="40"/>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="20"/>
+      <c r="K422" s="20" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
